--- a/interfaceFramework/testData/读取Excel示例.xlsx
+++ b/interfaceFramework/testData/读取Excel示例.xlsx
@@ -18,18 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
-    <t>用例名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testcase1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,14 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +61,22 @@
   </si>
   <si>
     <t>https://www.baidu.com/home/msg/data/personalcontent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -455,70 +455,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/interfaceFramework/testData/读取Excel示例.xlsx
+++ b/interfaceFramework/testData/读取Excel示例.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
